--- a/Survey/results/survey result.xlsx
+++ b/Survey/results/survey result.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12sha\Documents\thesislocation\Survey\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D789DB6-DA2A-408D-B3AC-98192BAD9C0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D4D27-C064-4329-8079-6CB3BE6B8D6F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{139F25A4-2AC3-4EB8-A8FB-F7E7E0200098}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1" xr2:uid="{139F25A4-2AC3-4EB8-A8FB-F7E7E0200098}"/>
   </bookViews>
   <sheets>
     <sheet name="survey results" sheetId="1" r:id="rId1"/>
-    <sheet name="compare" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'survey results'!$F$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'survey results'!$F$4:$F$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'survey results'!$C$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'survey results'!$C$4:$C$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'survey results'!$C$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'survey results'!$C$4:$C$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'survey results'!$D$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'survey results'!$D$4:$D$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'survey results'!$G$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'survey results'!$G$4:$G$13</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -39,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>User: 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Survey Participant</t>
   </si>
@@ -50,32 +45,26 @@
     <t>Answer(pm)</t>
   </si>
   <si>
-    <t>User: 12</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
-    <t>User 1: Without memory loss factor</t>
+    <t>Memory Loss Factor</t>
   </si>
   <si>
-    <t>User 1: With memory loss factor = 0.05 * 4 = 0.2</t>
+    <t>Answer</t>
   </si>
   <si>
-    <t>User 12: Without memory loss factor</t>
+    <t>Subject: 1</t>
   </si>
   <si>
-    <t>User 12: With memory loss factor = 0.05*4 = 0.2</t>
-  </si>
-  <si>
-    <t>Add mem loss factor for each</t>
+    <t>Subject: 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,22 +72,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,63 +98,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -172,26 +116,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -324,7 +271,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'survey results'!$C$14</c:f>
+              <c:f>'survey results'!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -345,7 +292,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'survey results'!$B$15:$B$17</c:f>
+              <c:f>'survey results'!$B$16:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>h:mm\ AM/PM</c:formatCode>
                 <c:ptCount val="3"/>
@@ -353,7 +300,7 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>0.85416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.83333333333333337</c:v>
@@ -363,7 +310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'survey results'!$C$15:$C$17</c:f>
+              <c:f>'survey results'!$C$16:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -371,10 +318,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,7 +611,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'survey results'!$F$14</c:f>
+              <c:f>'survey results'!$F$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -685,7 +632,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'survey results'!$E$15:$E$17</c:f>
+              <c:f>'survey results'!$E$16:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>h:mm\ AM/PM</c:formatCode>
                 <c:ptCount val="3"/>
@@ -703,7 +650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'survey results'!$F$15:$F$17</c:f>
+              <c:f>'survey results'!$F$16:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -714,7 +661,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,7 +842,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -903,7 +850,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>User 1: Leaving from Work</cx:v>
+          <cx:v>Memory Loss (User 1 As Input)</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -923,18 +870,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>User 1: Leaving from Work</a:t>
+            <a:t>Memory Loss (User 1 As Input)</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{93B7EA60-5367-4414-A296-8097904BD259}" formatIdx="0">
+        <cx:series layoutId="boxWhisker" uniqueId="{D20783DE-FABF-4124-BDD2-8B2861A3F64D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Answer(pm)</cx:v>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Memory Loss Factor</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -963,7 +910,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -971,7 +918,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>User 12: Leaving from Work</cx:v>
+          <cx:v>Memory Loss (User 2 As Input)</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -991,18 +938,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>User 12: Leaving from Work</a:t>
+            <a:t>Memory Loss (User 2 As Input)</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{C65928EF-6A52-400E-87BE-F9BA900C9611}" formatIdx="0">
+        <cx:series layoutId="boxWhisker" uniqueId="{65D37F56-772F-4B35-AB90-BD6070AFB291}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Answer(pm)</cx:v>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Memory Loss Factor</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -1187,6 +1134,1012 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1701,7 +2654,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2216,1035 +3169,101 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476673</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>115994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135468</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E6F367-DA6E-4491-9906-E27002849E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37254</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342054</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96519</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403A6FA9-248A-4454-B18A-8FFE699155C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
+            <xdr:cNvPr id="4" name="Chart 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1BC641-87A0-4C4F-AAB9-3390F947A4A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9BA27D-D8D5-4A78-8F62-77C7C1D55119}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3256,7 +3275,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -3271,8 +3290,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4625340" y="45720"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5803900" y="187113"/>
+              <a:ext cx="4572000" cy="2704254"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3304,25 +3323,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>474133</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2">
+            <xdr:cNvPr id="5" name="Chart 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12134CB-3BA2-4FF5-B2A7-55DE52B2E375}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55B6BE5-F650-4811-9415-1E59CE1ACAD3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3334,7 +3353,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -3349,8 +3368,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4632960" y="2796540"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5922433" y="3197860"/>
+              <a:ext cx="4572000" cy="2692400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3378,259 +3397,6 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E6F367-DA6E-4491-9906-E27002849E03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403A6FA9-248A-4454-B18A-8FFE699155C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>243841</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>540700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BA7F65-5367-4F28-A6D8-9CD1F178F741}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="243841" y="388621"/>
-          <a:ext cx="5783259" cy="1021079"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863CB773-E055-4D99-BDAC-9C9D4173EFBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6461760" y="525781"/>
-          <a:ext cx="5539740" cy="761999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>291760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>556259</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83953</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958E1E31-8B9D-4055-B705-967F39CE6ED8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6387760" y="1965961"/>
-          <a:ext cx="5750899" cy="884052"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5B0924-CD58-432A-B205-4E8345F93EC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="1905001"/>
-          <a:ext cx="5615940" cy="906779"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3933,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A700F44-5F85-4008-89A0-4F53DDBFF2CE}">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3944,321 +3710,409 @@
     <col min="1" max="1" width="8.88671875" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D4" s="2">
+        <f>0.01*22</f>
+        <v>0.22</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G4" s="7">
+        <f>0.01*15</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D5" s="2">
+        <f>0.01*17</f>
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G7" si="0">0.01*15</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D7" si="1">0.01*22</f>
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D8" s="2">
+        <f>0.01*10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D10" si="2">0.01*17</f>
+        <v>0.17</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="G9" s="7">
+        <f>0.01*21</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" ref="G10:G11" si="3">0.01*15</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D11" s="2">
+        <f>0.01*22</f>
+        <v>0.22</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C12" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D12" s="2">
+        <f>0.01*22</f>
+        <v>0.22</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="G12" s="7">
+        <f>0.01*21</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D13" s="2">
+        <f>0.01*10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="G13" s="7">
+        <f>0.01*21</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <f>AVERAGE(C4:C13)</f>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
         <v>0.875</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C16">
+        <f>COUNTIF($C$4:$C$13, B16)</f>
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="F16">
+        <f>COUNTIF($F$4:$F$13,E16)</f>
         <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C12" t="e">
-        <f>med</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="C15">
-        <f>COUNTIF($C$4:$C$11, B15)</f>
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F15">
-        <f>COUNTIF($F$4:$F$11,E15)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:C17" si="0">COUNTIF($C$4:$C$11, B16)</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F17" si="1">COUNTIF($F$4:$F$11,E16)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF($C$4:$C$13, B17)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF($F$4:$F$13,E17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C18">
+        <f>COUNTIF($C$4:$C$13, B18)</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.875</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="F18">
+        <f>COUNTIF($F$4:$F$13,E18)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D4EFF1-6C1A-4294-BB52-9322D4E684BF}">
-  <dimension ref="B1:S10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF90142C-0505-4CD7-9638-32E2CBB7FFE4}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>0.01*22</f>
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>0.01*17</f>
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="8" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="L9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A4" si="0">0.01*22</f>
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="7"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>0.01*10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" ref="A6:A7" si="1">0.01*17</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>0.01*22</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>0.01*22</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>0.01*10</f>
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="B9:I10"/>
-    <mergeCell ref="L1:S2"/>
-    <mergeCell ref="L9:S10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>